--- a/RawData/TEST_RETEST_FINA_DATABASE_TIDY.xlsx
+++ b/RawData/TEST_RETEST_FINA_DATABASE_TIDY.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10908"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11213"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Volumes/GoogleDrive/My Drive/grants and projects/test retest/Waynes HVPG project folder/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/juan/Google Drive/grants and projects/test retest/Paper write up/paper test-retest shared folder/databases April 2021/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{975878C2-71D6-1A44-91CC-7FD5F2078AFB}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{127D4369-281E-B44B-B3FD-9FC11064F2AD}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="9940" yWindow="560" windowWidth="15660" windowHeight="14540" xr2:uid="{17777284-CCE0-A848-AEAF-E80337575C03}"/>
+    <workbookView xWindow="3400" yWindow="500" windowWidth="30380" windowHeight="18400" xr2:uid="{17777284-CCE0-A848-AEAF-E80337575C03}"/>
   </bookViews>
   <sheets>
     <sheet name="Main data" sheetId="1" r:id="rId1"/>
@@ -21,7 +21,7 @@
   </sheets>
   <calcPr calcId="191029"/>
   <pivotCaches>
-    <pivotCache cacheId="6" r:id="rId6"/>
+    <pivotCache cacheId="3" r:id="rId6"/>
   </pivotCaches>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -30,7 +30,10 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -8379,7 +8382,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{4D51036A-009D-8C45-B7EC-CE69E0A3649D}" name="PivotTable3" cacheId="6" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" rowHeaderCaption="Study">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{4D51036A-009D-8C45-B7EC-CE69E0A3649D}" name="PivotTable3" cacheId="3" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" rowHeaderCaption="Study">
   <location ref="A3:D34" firstHeaderRow="0" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="16">
     <pivotField showAll="0">
@@ -8802,7 +8805,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable2.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{A073A7BE-C293-AA4B-A496-6E322FBA8CEB}" name="PivotTable4" cacheId="6" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" rowHeaderCaption="Study">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{A073A7BE-C293-AA4B-A496-6E322FBA8CEB}" name="PivotTable4" cacheId="3" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" rowHeaderCaption="Study">
   <location ref="A3:D30" firstHeaderRow="0" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="16">
     <pivotField showAll="0"/>
@@ -9310,10 +9313,10 @@
   <dimension ref="A1:T579"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" zoomScaleSheetLayoutView="90" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="G556" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="C557" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="H573" sqref="H573"/>
+      <selection pane="bottomRight" activeCell="H488" sqref="H488"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -15151,7 +15154,7 @@
         <v>21</v>
       </c>
       <c r="H92" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I92" s="1">
         <v>21</v>
@@ -15215,7 +15218,7 @@
         <v>19.5</v>
       </c>
       <c r="H93" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I93" s="1">
         <v>19.5</v>
@@ -15279,7 +15282,7 @@
         <v>19</v>
       </c>
       <c r="H94" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I94" s="1">
         <v>19</v>
@@ -15343,7 +15346,7 @@
         <v>19</v>
       </c>
       <c r="H95" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I95" s="1">
         <v>19</v>
@@ -15407,7 +15410,7 @@
         <v>17</v>
       </c>
       <c r="H96" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I96" s="1">
         <v>17</v>
@@ -15471,7 +15474,7 @@
         <v>16</v>
       </c>
       <c r="H97" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I97" s="1">
         <v>16</v>
@@ -15535,7 +15538,7 @@
         <v>14</v>
       </c>
       <c r="H98" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I98" s="1">
         <v>14</v>
@@ -15599,7 +15602,7 @@
         <v>13.5</v>
       </c>
       <c r="H99" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I99" s="1">
         <v>13.5</v>
@@ -15663,7 +15666,7 @@
         <v>13</v>
       </c>
       <c r="H100" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I100" s="1">
         <v>13</v>
@@ -15727,7 +15730,7 @@
         <v>13</v>
       </c>
       <c r="H101" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I101" s="1">
         <v>13</v>
@@ -15791,7 +15794,7 @@
         <v>12.5</v>
       </c>
       <c r="H102" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I102" s="1">
         <v>12.5</v>
@@ -15855,7 +15858,7 @@
         <v>12</v>
       </c>
       <c r="H103" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I103" s="1">
         <v>12</v>
@@ -15919,7 +15922,7 @@
         <v>11.5</v>
       </c>
       <c r="H104" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I104" s="1">
         <v>11.5</v>
@@ -15983,7 +15986,7 @@
         <v>11</v>
       </c>
       <c r="H105" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I105" s="1">
         <v>11</v>
@@ -16047,7 +16050,7 @@
         <v>10</v>
       </c>
       <c r="H106" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I106" s="1">
         <v>10</v>
@@ -16113,6 +16116,9 @@
       <c r="G107" s="1">
         <v>21</v>
       </c>
+      <c r="H107" s="1">
+        <v>2</v>
+      </c>
       <c r="I107" s="1">
         <v>21</v>
       </c>
@@ -16177,6 +16183,9 @@
       <c r="G108" s="1">
         <v>20</v>
       </c>
+      <c r="H108" s="1">
+        <v>2</v>
+      </c>
       <c r="I108" s="1">
         <v>20</v>
       </c>
@@ -16241,6 +16250,9 @@
       <c r="G109" s="1">
         <v>18</v>
       </c>
+      <c r="H109" s="1">
+        <v>2</v>
+      </c>
       <c r="I109" s="1">
         <v>18</v>
       </c>
@@ -16305,6 +16317,9 @@
       <c r="G110" s="1">
         <v>18</v>
       </c>
+      <c r="H110" s="1">
+        <v>2</v>
+      </c>
       <c r="I110" s="1">
         <v>18</v>
       </c>
@@ -16369,6 +16384,9 @@
       <c r="G111" s="1">
         <v>17</v>
       </c>
+      <c r="H111" s="1">
+        <v>2</v>
+      </c>
       <c r="I111" s="1">
         <v>17</v>
       </c>
@@ -16433,6 +16451,9 @@
       <c r="G112" s="1">
         <v>11</v>
       </c>
+      <c r="H112" s="1">
+        <v>2</v>
+      </c>
       <c r="I112" s="1">
         <v>11</v>
       </c>
@@ -16497,6 +16518,9 @@
       <c r="G113" s="1">
         <v>10</v>
       </c>
+      <c r="H113" s="1">
+        <v>2</v>
+      </c>
       <c r="I113" s="1">
         <v>10</v>
       </c>
@@ -16561,6 +16585,9 @@
       <c r="G114" s="1">
         <v>7</v>
       </c>
+      <c r="H114" s="1">
+        <v>2</v>
+      </c>
       <c r="I114" s="1">
         <v>7</v>
       </c>
@@ -16623,7 +16650,7 @@
         <v>24</v>
       </c>
       <c r="H115" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I115" s="1">
         <v>24</v>
@@ -16686,7 +16713,7 @@
         <v>23.5</v>
       </c>
       <c r="H116" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I116" s="1">
         <v>23.5</v>
@@ -16749,7 +16776,7 @@
         <v>22.5</v>
       </c>
       <c r="H117" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I117" s="1">
         <v>22.5</v>
@@ -16812,7 +16839,7 @@
         <v>22.5</v>
       </c>
       <c r="H118" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I118" s="1">
         <v>22.5</v>
@@ -16875,7 +16902,7 @@
         <v>20</v>
       </c>
       <c r="H119" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I119" s="1">
         <v>20</v>
@@ -16938,7 +16965,7 @@
         <v>19</v>
       </c>
       <c r="H120" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I120" s="1">
         <v>19</v>
@@ -17001,7 +17028,7 @@
         <v>18</v>
       </c>
       <c r="H121" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I121" s="1">
         <v>18</v>
@@ -17064,7 +17091,7 @@
         <v>18</v>
       </c>
       <c r="H122" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I122" s="1">
         <v>18</v>
@@ -17127,7 +17154,7 @@
         <v>17</v>
       </c>
       <c r="H123" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I123" s="1">
         <v>17</v>
@@ -17190,7 +17217,7 @@
         <v>17</v>
       </c>
       <c r="H124" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I124" s="1">
         <v>17</v>
@@ -17253,7 +17280,7 @@
         <v>16</v>
       </c>
       <c r="H125" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I125" s="1">
         <v>16</v>
@@ -17316,7 +17343,7 @@
         <v>14</v>
       </c>
       <c r="H126" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I126" s="1">
         <v>14</v>
@@ -17379,7 +17406,7 @@
         <v>13.5</v>
       </c>
       <c r="H127" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I127" s="1">
         <v>13.5</v>
@@ -17442,7 +17469,7 @@
         <v>13</v>
       </c>
       <c r="H128" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I128" s="1">
         <v>13</v>
@@ -17505,7 +17532,7 @@
         <v>13</v>
       </c>
       <c r="H129" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I129" s="1">
         <v>13</v>
@@ -17568,7 +17595,7 @@
         <v>12.5</v>
       </c>
       <c r="H130" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I130" s="1">
         <v>12.5</v>
@@ -17631,7 +17658,7 @@
         <v>11</v>
       </c>
       <c r="H131" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I131" s="1">
         <v>11</v>
@@ -17694,7 +17721,7 @@
         <v>11</v>
       </c>
       <c r="H132" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I132" s="1">
         <v>11</v>
@@ -17757,7 +17784,7 @@
         <v>11</v>
       </c>
       <c r="H133" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I133" s="1">
         <v>11</v>
@@ -17820,7 +17847,7 @@
         <v>10</v>
       </c>
       <c r="H134" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I134" s="1">
         <v>10</v>
@@ -17883,7 +17910,7 @@
         <v>10</v>
       </c>
       <c r="H135" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I135" s="1">
         <v>10</v>
@@ -17945,6 +17972,9 @@
       <c r="G136" s="1">
         <v>24.5</v>
       </c>
+      <c r="H136" s="1">
+        <v>2</v>
+      </c>
       <c r="I136" s="1">
         <v>24.5</v>
       </c>
@@ -18005,6 +18035,9 @@
       <c r="G137" s="1">
         <v>23.5</v>
       </c>
+      <c r="H137" s="1">
+        <v>2</v>
+      </c>
       <c r="I137" s="1">
         <v>23.5</v>
       </c>
@@ -18065,6 +18098,9 @@
       <c r="G138" s="1">
         <v>23</v>
       </c>
+      <c r="H138" s="1">
+        <v>2</v>
+      </c>
       <c r="I138" s="1">
         <v>23</v>
       </c>
@@ -18125,6 +18161,9 @@
       <c r="G139" s="1">
         <v>22</v>
       </c>
+      <c r="H139" s="1">
+        <v>2</v>
+      </c>
       <c r="I139" s="1">
         <v>22</v>
       </c>
@@ -18185,6 +18224,9 @@
       <c r="G140" s="1">
         <v>20</v>
       </c>
+      <c r="H140" s="1">
+        <v>2</v>
+      </c>
       <c r="I140" s="1">
         <v>20</v>
       </c>
@@ -18245,6 +18287,9 @@
       <c r="G141" s="1">
         <v>20</v>
       </c>
+      <c r="H141" s="1">
+        <v>2</v>
+      </c>
       <c r="I141" s="1">
         <v>20</v>
       </c>
@@ -18305,6 +18350,9 @@
       <c r="G142" s="1">
         <v>20</v>
       </c>
+      <c r="H142" s="1">
+        <v>2</v>
+      </c>
       <c r="I142" s="1">
         <v>20</v>
       </c>
@@ -18365,6 +18413,9 @@
       <c r="G143" s="1">
         <v>19</v>
       </c>
+      <c r="H143" s="1">
+        <v>2</v>
+      </c>
       <c r="I143" s="1">
         <v>19</v>
       </c>
@@ -18425,6 +18476,9 @@
       <c r="G144" s="1">
         <v>19</v>
       </c>
+      <c r="H144" s="1">
+        <v>2</v>
+      </c>
       <c r="I144" s="1">
         <v>19</v>
       </c>
@@ -18485,6 +18539,9 @@
       <c r="G145" s="1">
         <v>19</v>
       </c>
+      <c r="H145" s="1">
+        <v>2</v>
+      </c>
       <c r="I145" s="1">
         <v>19</v>
       </c>
@@ -18545,6 +18602,9 @@
       <c r="G146" s="1">
         <v>18</v>
       </c>
+      <c r="H146" s="1">
+        <v>2</v>
+      </c>
       <c r="I146" s="1">
         <v>18</v>
       </c>
@@ -18605,6 +18665,9 @@
       <c r="G147" s="1">
         <v>17</v>
       </c>
+      <c r="H147" s="1">
+        <v>2</v>
+      </c>
       <c r="I147" s="1">
         <v>17</v>
       </c>
@@ -18665,6 +18728,9 @@
       <c r="G148" s="1">
         <v>17</v>
       </c>
+      <c r="H148" s="1">
+        <v>2</v>
+      </c>
       <c r="I148" s="1">
         <v>17</v>
       </c>
@@ -18725,6 +18791,9 @@
       <c r="G149" s="1">
         <v>15</v>
       </c>
+      <c r="H149" s="1">
+        <v>2</v>
+      </c>
       <c r="I149" s="1">
         <v>15</v>
       </c>
@@ -18785,6 +18854,9 @@
       <c r="G150" s="1">
         <v>14</v>
       </c>
+      <c r="H150" s="1">
+        <v>2</v>
+      </c>
       <c r="I150" s="1">
         <v>14</v>
       </c>
@@ -18845,6 +18917,9 @@
       <c r="G151" s="1">
         <v>13.5</v>
       </c>
+      <c r="H151" s="1">
+        <v>2</v>
+      </c>
       <c r="I151" s="1">
         <v>13.5</v>
       </c>
@@ -18905,6 +18980,9 @@
       <c r="G152" s="1">
         <v>12.5</v>
       </c>
+      <c r="H152" s="1">
+        <v>2</v>
+      </c>
       <c r="I152" s="1">
         <v>12.5</v>
       </c>
@@ -18965,6 +19043,9 @@
       <c r="G153" s="1">
         <v>12</v>
       </c>
+      <c r="H153" s="1">
+        <v>2</v>
+      </c>
       <c r="I153" s="1">
         <v>12</v>
       </c>
@@ -19529,6 +19610,9 @@
       <c r="G162" s="1">
         <v>28</v>
       </c>
+      <c r="H162" s="1">
+        <v>2</v>
+      </c>
       <c r="I162" s="1">
         <v>28</v>
       </c>
@@ -19589,6 +19673,9 @@
       <c r="G163" s="1">
         <v>24</v>
       </c>
+      <c r="H163" s="1">
+        <v>2</v>
+      </c>
       <c r="I163" s="1">
         <v>24</v>
       </c>
@@ -19649,6 +19736,9 @@
       <c r="G164" s="1">
         <v>24</v>
       </c>
+      <c r="H164" s="1">
+        <v>2</v>
+      </c>
       <c r="I164" s="1">
         <v>24</v>
       </c>
@@ -19709,6 +19799,9 @@
       <c r="G165" s="1">
         <v>23</v>
       </c>
+      <c r="H165" s="1">
+        <v>2</v>
+      </c>
       <c r="I165" s="1">
         <v>23</v>
       </c>
@@ -19769,6 +19862,9 @@
       <c r="G166" s="1">
         <v>22</v>
       </c>
+      <c r="H166" s="1">
+        <v>2</v>
+      </c>
       <c r="I166" s="1">
         <v>22</v>
       </c>
@@ -19829,6 +19925,9 @@
       <c r="G167" s="1">
         <v>21</v>
       </c>
+      <c r="H167" s="1">
+        <v>2</v>
+      </c>
       <c r="I167" s="1">
         <v>21</v>
       </c>
@@ -19889,6 +19988,9 @@
       <c r="G168" s="1">
         <v>17</v>
       </c>
+      <c r="H168" s="1">
+        <v>2</v>
+      </c>
       <c r="I168" s="1">
         <v>17</v>
       </c>
@@ -19949,6 +20051,9 @@
       <c r="G169" s="1">
         <v>16</v>
       </c>
+      <c r="H169" s="1">
+        <v>2</v>
+      </c>
       <c r="I169" s="1">
         <v>16</v>
       </c>
@@ -20009,6 +20114,9 @@
       <c r="G170" s="1">
         <v>14</v>
       </c>
+      <c r="H170" s="1">
+        <v>2</v>
+      </c>
       <c r="I170" s="1">
         <v>14</v>
       </c>
@@ -20069,6 +20177,9 @@
       <c r="G171" s="1">
         <v>14</v>
       </c>
+      <c r="H171" s="1">
+        <v>2</v>
+      </c>
       <c r="I171" s="1">
         <v>14</v>
       </c>
@@ -28674,7 +28785,7 @@
         <v>19.5</v>
       </c>
       <c r="H307" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I307" s="1">
         <v>21</v>
@@ -28738,7 +28849,7 @@
         <v>20.5</v>
       </c>
       <c r="H308" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I308" s="1">
         <v>19.5</v>
@@ -28802,7 +28913,7 @@
         <v>20</v>
       </c>
       <c r="H309" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I309" s="1">
         <v>19</v>
@@ -28866,7 +28977,7 @@
         <v>20</v>
       </c>
       <c r="H310" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I310" s="1">
         <v>19</v>
@@ -28930,7 +29041,7 @@
         <v>14</v>
       </c>
       <c r="H311" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I311" s="1">
         <v>17</v>
@@ -28994,7 +29105,7 @@
         <v>11</v>
       </c>
       <c r="H312" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I312" s="1">
         <v>16</v>
@@ -29058,7 +29169,7 @@
         <v>15</v>
       </c>
       <c r="H313" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I313" s="1">
         <v>14</v>
@@ -29122,7 +29233,7 @@
         <v>13</v>
       </c>
       <c r="H314" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I314" s="1">
         <v>13.5</v>
@@ -29186,7 +29297,7 @@
         <v>13</v>
       </c>
       <c r="H315" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I315" s="1">
         <v>13</v>
@@ -29250,7 +29361,7 @@
         <v>12.5</v>
       </c>
       <c r="H316" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I316" s="1">
         <v>13</v>
@@ -29314,7 +29425,7 @@
         <v>12.5</v>
       </c>
       <c r="H317" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I317" s="1">
         <v>12.5</v>
@@ -29378,7 +29489,7 @@
         <v>12</v>
       </c>
       <c r="H318" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I318" s="1">
         <v>12</v>
@@ -29442,7 +29553,7 @@
         <v>11.5</v>
       </c>
       <c r="H319" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I319" s="1">
         <v>11.5</v>
@@ -29506,7 +29617,7 @@
         <v>12</v>
       </c>
       <c r="H320" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I320" s="1">
         <v>11</v>
@@ -29570,7 +29681,7 @@
         <v>11</v>
       </c>
       <c r="H321" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I321" s="1">
         <v>10</v>
@@ -29636,6 +29747,9 @@
       <c r="G322" s="1">
         <v>21</v>
       </c>
+      <c r="H322" s="1">
+        <v>2</v>
+      </c>
       <c r="I322" s="1">
         <v>21</v>
       </c>
@@ -29700,6 +29814,9 @@
       <c r="G323" s="1">
         <v>20</v>
       </c>
+      <c r="H323" s="1">
+        <v>2</v>
+      </c>
       <c r="I323" s="1">
         <v>20</v>
       </c>
@@ -29764,6 +29881,9 @@
       <c r="G324" s="1">
         <v>22</v>
       </c>
+      <c r="H324" s="1">
+        <v>2</v>
+      </c>
       <c r="I324" s="1">
         <v>18</v>
       </c>
@@ -29828,6 +29948,9 @@
       <c r="G325" s="1">
         <v>19</v>
       </c>
+      <c r="H325" s="1">
+        <v>2</v>
+      </c>
       <c r="I325" s="1">
         <v>18</v>
       </c>
@@ -29892,6 +30015,9 @@
       <c r="G326" s="1">
         <v>16</v>
       </c>
+      <c r="H326" s="1">
+        <v>2</v>
+      </c>
       <c r="I326" s="1">
         <v>17</v>
       </c>
@@ -29956,6 +30082,9 @@
       <c r="G327" s="1">
         <v>11</v>
       </c>
+      <c r="H327" s="1">
+        <v>2</v>
+      </c>
       <c r="I327" s="1">
         <v>11</v>
       </c>
@@ -30020,6 +30149,9 @@
       <c r="G328" s="1">
         <v>9</v>
       </c>
+      <c r="H328" s="1">
+        <v>2</v>
+      </c>
       <c r="I328" s="1">
         <v>10</v>
       </c>
@@ -30084,6 +30216,9 @@
       <c r="G329" s="1">
         <v>6</v>
       </c>
+      <c r="H329" s="1">
+        <v>2</v>
+      </c>
       <c r="I329" s="1">
         <v>7</v>
       </c>
@@ -30146,7 +30281,7 @@
         <v>25</v>
       </c>
       <c r="H330" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I330" s="1">
         <v>24</v>
@@ -30209,7 +30344,7 @@
         <v>22</v>
       </c>
       <c r="H331" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I331" s="1">
         <v>23.5</v>
@@ -30272,7 +30407,7 @@
         <v>21.5</v>
       </c>
       <c r="H332" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I332" s="1">
         <v>22.5</v>
@@ -30335,7 +30470,7 @@
         <v>21.5</v>
       </c>
       <c r="H333" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I333" s="1">
         <v>22.5</v>
@@ -30398,7 +30533,7 @@
         <v>18.5</v>
       </c>
       <c r="H334" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I334" s="1">
         <v>20</v>
@@ -30461,7 +30596,7 @@
         <v>16</v>
       </c>
       <c r="H335" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I335" s="1">
         <v>19</v>
@@ -30524,7 +30659,7 @@
         <v>17</v>
       </c>
       <c r="H336" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I336" s="1">
         <v>18</v>
@@ -30587,7 +30722,7 @@
         <v>16</v>
       </c>
       <c r="H337" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I337" s="1">
         <v>18</v>
@@ -30650,7 +30785,7 @@
         <v>17</v>
       </c>
       <c r="H338" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I338" s="1">
         <v>17</v>
@@ -30713,7 +30848,7 @@
         <v>15.5</v>
       </c>
       <c r="H339" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I339" s="1">
         <v>17</v>
@@ -30776,7 +30911,7 @@
         <v>18.5</v>
       </c>
       <c r="H340" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I340" s="1">
         <v>16</v>
@@ -30839,7 +30974,7 @@
         <v>13</v>
       </c>
       <c r="H341" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I341" s="1">
         <v>14</v>
@@ -30902,7 +31037,7 @@
         <v>13.5</v>
       </c>
       <c r="H342" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I342" s="1">
         <v>13.5</v>
@@ -30965,7 +31100,7 @@
         <v>13.5</v>
       </c>
       <c r="H343" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I343" s="1">
         <v>13</v>
@@ -31028,7 +31163,7 @@
         <v>11.5</v>
       </c>
       <c r="H344" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I344" s="1">
         <v>13</v>
@@ -31091,7 +31226,7 @@
         <v>11.5</v>
       </c>
       <c r="H345" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I345" s="1">
         <v>12.5</v>
@@ -31154,7 +31289,7 @@
         <v>13.5</v>
       </c>
       <c r="H346" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I346" s="1">
         <v>11</v>
@@ -31217,7 +31352,7 @@
         <v>10.5</v>
       </c>
       <c r="H347" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I347" s="1">
         <v>11</v>
@@ -31280,7 +31415,7 @@
         <v>10.5</v>
       </c>
       <c r="H348" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I348" s="1">
         <v>11</v>
@@ -31343,7 +31478,7 @@
         <v>10</v>
       </c>
       <c r="H349" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I349" s="1">
         <v>10</v>
@@ -31406,7 +31541,7 @@
         <v>9.5</v>
       </c>
       <c r="H350" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I350" s="1">
         <v>10</v>
@@ -31468,6 +31603,9 @@
       <c r="G351" s="1">
         <v>22.5</v>
       </c>
+      <c r="H351" s="1">
+        <v>2</v>
+      </c>
       <c r="I351" s="1">
         <v>24.5</v>
       </c>
@@ -31528,6 +31666,9 @@
       <c r="G352" s="1">
         <v>21.5</v>
       </c>
+      <c r="H352" s="1">
+        <v>2</v>
+      </c>
       <c r="I352" s="1">
         <v>23.5</v>
       </c>
@@ -31588,6 +31729,9 @@
       <c r="G353" s="1">
         <v>21</v>
       </c>
+      <c r="H353" s="1">
+        <v>2</v>
+      </c>
       <c r="I353" s="1">
         <v>23</v>
       </c>
@@ -31648,6 +31792,9 @@
       <c r="G354" s="1">
         <v>14</v>
       </c>
+      <c r="H354" s="1">
+        <v>2</v>
+      </c>
       <c r="I354" s="1">
         <v>22</v>
       </c>
@@ -31708,6 +31855,9 @@
       <c r="G355" s="1">
         <v>25</v>
       </c>
+      <c r="H355" s="1">
+        <v>2</v>
+      </c>
       <c r="I355" s="1">
         <v>20</v>
       </c>
@@ -31768,6 +31918,9 @@
       <c r="G356" s="1">
         <v>24</v>
       </c>
+      <c r="H356" s="1">
+        <v>2</v>
+      </c>
       <c r="I356" s="1">
         <v>20</v>
       </c>
@@ -31828,6 +31981,9 @@
       <c r="G357" s="1">
         <v>17</v>
       </c>
+      <c r="H357" s="1">
+        <v>2</v>
+      </c>
       <c r="I357" s="1">
         <v>20</v>
       </c>
@@ -31888,6 +32044,9 @@
       <c r="G358" s="1">
         <v>19</v>
       </c>
+      <c r="H358" s="1">
+        <v>2</v>
+      </c>
       <c r="I358" s="1">
         <v>19</v>
       </c>
@@ -31948,6 +32107,9 @@
       <c r="G359" s="1">
         <v>24</v>
       </c>
+      <c r="H359" s="1">
+        <v>2</v>
+      </c>
       <c r="I359" s="1">
         <v>19</v>
       </c>
@@ -32008,6 +32170,9 @@
       <c r="G360" s="1">
         <v>18</v>
       </c>
+      <c r="H360" s="1">
+        <v>2</v>
+      </c>
       <c r="I360" s="1">
         <v>19</v>
       </c>
@@ -32068,6 +32233,9 @@
       <c r="G361" s="1">
         <v>17</v>
       </c>
+      <c r="H361" s="1">
+        <v>2</v>
+      </c>
       <c r="I361" s="1">
         <v>18</v>
       </c>
@@ -32128,6 +32296,9 @@
       <c r="G362" s="1">
         <v>19</v>
       </c>
+      <c r="H362" s="1">
+        <v>2</v>
+      </c>
       <c r="I362" s="1">
         <v>17</v>
       </c>
@@ -32188,6 +32359,9 @@
       <c r="G363" s="1">
         <v>16</v>
       </c>
+      <c r="H363" s="1">
+        <v>2</v>
+      </c>
       <c r="I363" s="1">
         <v>17</v>
       </c>
@@ -32248,6 +32422,9 @@
       <c r="G364" s="1">
         <v>14</v>
       </c>
+      <c r="H364" s="1">
+        <v>2</v>
+      </c>
       <c r="I364" s="1">
         <v>15</v>
       </c>
@@ -32308,6 +32485,9 @@
       <c r="G365" s="1">
         <v>17</v>
       </c>
+      <c r="H365" s="1">
+        <v>2</v>
+      </c>
       <c r="I365" s="1">
         <v>14</v>
       </c>
@@ -32368,6 +32548,9 @@
       <c r="G366" s="1">
         <v>13.5</v>
       </c>
+      <c r="H366" s="1">
+        <v>2</v>
+      </c>
       <c r="I366" s="1">
         <v>13.5</v>
       </c>
@@ -32428,6 +32611,9 @@
       <c r="G367" s="1">
         <v>12.5</v>
       </c>
+      <c r="H367" s="1">
+        <v>2</v>
+      </c>
       <c r="I367" s="1">
         <v>12.5</v>
       </c>
@@ -32488,6 +32674,9 @@
       <c r="G368" s="1">
         <v>13</v>
       </c>
+      <c r="H368" s="1">
+        <v>2</v>
+      </c>
       <c r="I368" s="1">
         <v>12</v>
       </c>
@@ -33052,6 +33241,9 @@
       <c r="G377" s="1">
         <v>27</v>
       </c>
+      <c r="H377" s="1">
+        <v>2</v>
+      </c>
       <c r="I377" s="1">
         <v>28</v>
       </c>
@@ -33112,6 +33304,9 @@
       <c r="G378" s="1">
         <v>27</v>
       </c>
+      <c r="H378" s="1">
+        <v>2</v>
+      </c>
       <c r="I378" s="1">
         <v>24</v>
       </c>
@@ -33172,6 +33367,9 @@
       <c r="G379" s="1">
         <v>23</v>
       </c>
+      <c r="H379" s="1">
+        <v>2</v>
+      </c>
       <c r="I379" s="1">
         <v>24</v>
       </c>
@@ -33232,6 +33430,9 @@
       <c r="G380" s="1">
         <v>22</v>
       </c>
+      <c r="H380" s="1">
+        <v>2</v>
+      </c>
       <c r="I380" s="1">
         <v>23</v>
       </c>
@@ -33292,6 +33493,9 @@
       <c r="G381" s="1">
         <v>26</v>
       </c>
+      <c r="H381" s="1">
+        <v>2</v>
+      </c>
       <c r="I381" s="1">
         <v>22</v>
       </c>
@@ -33352,6 +33556,9 @@
       <c r="G382" s="1">
         <v>21</v>
       </c>
+      <c r="H382" s="1">
+        <v>2</v>
+      </c>
       <c r="I382" s="1">
         <v>21</v>
       </c>
@@ -33412,6 +33619,9 @@
       <c r="G383" s="1">
         <v>17</v>
       </c>
+      <c r="H383" s="1">
+        <v>2</v>
+      </c>
       <c r="I383" s="1">
         <v>17</v>
       </c>
@@ -33472,6 +33682,9 @@
       <c r="G384" s="1">
         <v>16</v>
       </c>
+      <c r="H384" s="1">
+        <v>2</v>
+      </c>
       <c r="I384" s="1">
         <v>16</v>
       </c>
@@ -33532,6 +33745,9 @@
       <c r="G385" s="1">
         <v>15</v>
       </c>
+      <c r="H385" s="1">
+        <v>2</v>
+      </c>
       <c r="I385" s="1">
         <v>14</v>
       </c>
@@ -33592,6 +33808,9 @@
       <c r="G386" s="1">
         <v>13</v>
       </c>
+      <c r="H386" s="1">
+        <v>2</v>
+      </c>
       <c r="I386" s="1">
         <v>14</v>
       </c>
@@ -36464,8 +36683,11 @@
       <c r="G432" s="1">
         <v>20</v>
       </c>
-    </row>
-    <row r="433" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H432" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="433" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A433" s="1">
         <v>217</v>
       </c>
@@ -36484,8 +36706,11 @@
       <c r="G433" s="1">
         <v>20</v>
       </c>
-    </row>
-    <row r="434" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H433" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="434" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A434" s="1">
         <v>218</v>
       </c>
@@ -36504,8 +36729,11 @@
       <c r="G434" s="1">
         <v>20</v>
       </c>
-    </row>
-    <row r="435" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H434" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="435" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A435" s="1">
         <v>219</v>
       </c>
@@ -36524,8 +36752,11 @@
       <c r="G435" s="1">
         <v>18</v>
       </c>
-    </row>
-    <row r="436" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H435" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="436" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A436" s="1">
         <v>220</v>
       </c>
@@ -36544,8 +36775,11 @@
       <c r="G436" s="1">
         <v>15</v>
       </c>
-    </row>
-    <row r="437" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H436" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="437" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A437" s="1">
         <v>221</v>
       </c>
@@ -36564,8 +36798,11 @@
       <c r="G437" s="1">
         <v>13</v>
       </c>
-    </row>
-    <row r="438" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H437" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="438" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A438" s="1">
         <v>222</v>
       </c>
@@ -36584,8 +36821,11 @@
       <c r="G438" s="1">
         <v>12</v>
       </c>
-    </row>
-    <row r="439" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H438" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="439" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A439" s="1">
         <v>223</v>
       </c>
@@ -36604,8 +36844,11 @@
       <c r="G439" s="1">
         <v>11</v>
       </c>
-    </row>
-    <row r="440" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H439" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="440" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A440" s="1">
         <v>224</v>
       </c>
@@ -36624,8 +36867,11 @@
       <c r="G440" s="1">
         <v>10</v>
       </c>
-    </row>
-    <row r="441" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H440" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="441" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A441" s="1">
         <v>225</v>
       </c>
@@ -36644,8 +36890,11 @@
       <c r="G441" s="1">
         <v>12</v>
       </c>
-    </row>
-    <row r="442" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H441" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="442" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A442" s="1">
         <v>226</v>
       </c>
@@ -36664,8 +36913,11 @@
       <c r="G442" s="1">
         <v>12</v>
       </c>
-    </row>
-    <row r="443" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H442" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="443" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A443" s="1">
         <v>227</v>
       </c>
@@ -36684,8 +36936,11 @@
       <c r="G443" s="1">
         <v>12</v>
       </c>
-    </row>
-    <row r="444" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H443" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="444" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A444" s="1">
         <v>228</v>
       </c>
@@ -36704,8 +36959,11 @@
       <c r="G444" s="1">
         <v>12</v>
       </c>
-    </row>
-    <row r="445" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H444" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="445" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A445" s="1">
         <v>229</v>
       </c>
@@ -36724,8 +36982,11 @@
       <c r="G445" s="1">
         <v>12</v>
       </c>
-    </row>
-    <row r="446" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H445" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="446" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A446" s="1">
         <v>230</v>
       </c>
@@ -36744,8 +37005,11 @@
       <c r="G446" s="1">
         <v>12.5</v>
       </c>
-    </row>
-    <row r="447" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H446" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="447" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A447" s="1">
         <v>231</v>
       </c>
@@ -36764,8 +37028,11 @@
       <c r="G447" s="1">
         <v>12.5</v>
       </c>
-    </row>
-    <row r="448" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H447" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="448" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A448" s="1">
         <v>232</v>
       </c>
@@ -36784,8 +37051,11 @@
       <c r="G448" s="1">
         <v>12.5</v>
       </c>
-    </row>
-    <row r="449" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H448" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="449" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A449" s="1">
         <v>233</v>
       </c>
@@ -36804,8 +37074,11 @@
       <c r="G449" s="1">
         <v>12.5</v>
       </c>
-    </row>
-    <row r="450" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H449" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="450" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A450" s="1">
         <v>234</v>
       </c>
@@ -36824,8 +37097,11 @@
       <c r="G450" s="1">
         <v>13</v>
       </c>
-    </row>
-    <row r="451" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H450" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="451" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A451" s="1">
         <v>235</v>
       </c>
@@ -36844,8 +37120,11 @@
       <c r="G451" s="1">
         <v>13</v>
       </c>
-    </row>
-    <row r="452" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H451" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="452" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A452" s="1">
         <v>236</v>
       </c>
@@ -36864,8 +37143,11 @@
       <c r="G452" s="1">
         <v>13</v>
       </c>
-    </row>
-    <row r="453" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H452" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="453" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A453" s="1">
         <v>237</v>
       </c>
@@ -36884,8 +37166,11 @@
       <c r="G453" s="1">
         <v>13</v>
       </c>
-    </row>
-    <row r="454" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H453" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="454" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A454" s="1">
         <v>238</v>
       </c>
@@ -36904,8 +37189,11 @@
       <c r="G454" s="1">
         <v>13.5</v>
       </c>
-    </row>
-    <row r="455" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H454" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="455" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A455" s="1">
         <v>239</v>
       </c>
@@ -36924,8 +37212,11 @@
       <c r="G455" s="1">
         <v>13.5</v>
       </c>
-    </row>
-    <row r="456" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H455" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="456" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A456" s="1">
         <v>240</v>
       </c>
@@ -36944,8 +37235,11 @@
       <c r="G456" s="1">
         <v>14</v>
       </c>
-    </row>
-    <row r="457" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H456" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="457" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A457" s="1">
         <v>241</v>
       </c>
@@ -36964,8 +37258,11 @@
       <c r="G457" s="1">
         <v>14</v>
       </c>
-    </row>
-    <row r="458" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H457" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="458" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A458" s="1">
         <v>242</v>
       </c>
@@ -36984,8 +37281,11 @@
       <c r="G458" s="1">
         <v>14.5</v>
       </c>
-    </row>
-    <row r="459" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H458" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="459" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A459" s="1">
         <v>243</v>
       </c>
@@ -37004,8 +37304,11 @@
       <c r="G459" s="1">
         <v>14.5</v>
       </c>
-    </row>
-    <row r="460" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H459" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="460" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A460" s="1">
         <v>244</v>
       </c>
@@ -37024,8 +37327,11 @@
       <c r="G460" s="1">
         <v>15</v>
       </c>
-    </row>
-    <row r="461" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H460" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="461" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A461" s="1">
         <v>245</v>
       </c>
@@ -37044,8 +37350,11 @@
       <c r="G461" s="1">
         <v>15</v>
       </c>
-    </row>
-    <row r="462" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H461" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="462" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A462" s="1">
         <v>246</v>
       </c>
@@ -37064,8 +37373,11 @@
       <c r="G462" s="1">
         <v>15</v>
       </c>
-    </row>
-    <row r="463" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H462" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="463" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A463" s="1">
         <v>247</v>
       </c>
@@ -37084,8 +37396,11 @@
       <c r="G463" s="1">
         <v>15</v>
       </c>
-    </row>
-    <row r="464" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H463" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="464" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A464" s="1">
         <v>248</v>
       </c>
@@ -37104,8 +37419,11 @@
       <c r="G464" s="1">
         <v>15</v>
       </c>
-    </row>
-    <row r="465" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H464" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="465" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A465" s="1">
         <v>249</v>
       </c>
@@ -37124,8 +37442,11 @@
       <c r="G465" s="1">
         <v>15.5</v>
       </c>
-    </row>
-    <row r="466" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H465" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="466" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A466" s="1">
         <v>250</v>
       </c>
@@ -37144,8 +37465,11 @@
       <c r="G466" s="1">
         <v>15.5</v>
       </c>
-    </row>
-    <row r="467" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H466" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="467" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A467" s="1">
         <v>251</v>
       </c>
@@ -37164,8 +37488,11 @@
       <c r="G467" s="1">
         <v>16</v>
       </c>
-    </row>
-    <row r="468" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H467" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="468" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A468" s="1">
         <v>252</v>
       </c>
@@ -37184,8 +37511,11 @@
       <c r="G468" s="1">
         <v>16</v>
       </c>
-    </row>
-    <row r="469" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H468" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="469" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A469" s="1">
         <v>253</v>
       </c>
@@ -37204,8 +37534,11 @@
       <c r="G469" s="1">
         <v>16</v>
       </c>
-    </row>
-    <row r="470" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H469" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="470" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A470" s="1">
         <v>254</v>
       </c>
@@ -37224,8 +37557,11 @@
       <c r="G470" s="1">
         <v>16</v>
       </c>
-    </row>
-    <row r="471" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H470" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="471" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A471" s="1">
         <v>255</v>
       </c>
@@ -37244,8 +37580,11 @@
       <c r="G471" s="1">
         <v>16.5</v>
       </c>
-    </row>
-    <row r="472" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H471" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="472" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A472" s="1">
         <v>256</v>
       </c>
@@ -37264,8 +37603,11 @@
       <c r="G472" s="1">
         <v>16.5</v>
       </c>
-    </row>
-    <row r="473" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H472" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="473" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A473" s="1">
         <v>257</v>
       </c>
@@ -37284,8 +37626,11 @@
       <c r="G473" s="1">
         <v>17</v>
       </c>
-    </row>
-    <row r="474" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H473" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="474" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A474" s="1">
         <v>258</v>
       </c>
@@ -37304,8 +37649,11 @@
       <c r="G474" s="1">
         <v>17</v>
       </c>
-    </row>
-    <row r="475" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H474" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="475" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A475" s="1">
         <v>259</v>
       </c>
@@ -37324,8 +37672,11 @@
       <c r="G475" s="1">
         <v>17.5</v>
       </c>
-    </row>
-    <row r="476" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H475" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="476" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A476" s="1">
         <v>260</v>
       </c>
@@ -37344,8 +37695,11 @@
       <c r="G476" s="1">
         <v>18</v>
       </c>
-    </row>
-    <row r="477" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H476" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="477" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A477" s="1">
         <v>261</v>
       </c>
@@ -37364,8 +37718,11 @@
       <c r="G477" s="1">
         <v>18.5</v>
       </c>
-    </row>
-    <row r="478" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H477" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="478" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A478" s="1">
         <v>262</v>
       </c>
@@ -37384,8 +37741,11 @@
       <c r="G478" s="1">
         <v>18.5</v>
       </c>
-    </row>
-    <row r="479" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H478" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="479" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A479" s="1">
         <v>263</v>
       </c>
@@ -37404,8 +37764,11 @@
       <c r="G479" s="1">
         <v>19</v>
       </c>
-    </row>
-    <row r="480" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H479" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="480" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A480" s="1">
         <v>264</v>
       </c>
@@ -37424,8 +37787,11 @@
       <c r="G480" s="1">
         <v>19</v>
       </c>
-    </row>
-    <row r="481" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H480" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="481" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A481" s="1">
         <v>265</v>
       </c>
@@ -37444,8 +37810,11 @@
       <c r="G481" s="1">
         <v>19</v>
       </c>
-    </row>
-    <row r="482" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H481" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="482" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A482" s="1">
         <v>266</v>
       </c>
@@ -37464,8 +37833,11 @@
       <c r="G482" s="1">
         <v>19.5</v>
       </c>
-    </row>
-    <row r="483" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H482" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="483" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A483" s="1">
         <v>267</v>
       </c>
@@ -37484,8 +37856,11 @@
       <c r="G483" s="1">
         <v>19.5</v>
       </c>
-    </row>
-    <row r="484" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H483" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="484" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A484" s="1">
         <v>268</v>
       </c>
@@ -37504,8 +37879,11 @@
       <c r="G484" s="1">
         <v>19.5</v>
       </c>
-    </row>
-    <row r="485" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H484" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="485" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A485" s="1">
         <v>269</v>
       </c>
@@ -37524,8 +37902,11 @@
       <c r="G485" s="1">
         <v>19.5</v>
       </c>
-    </row>
-    <row r="486" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H485" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="486" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A486" s="1">
         <v>270</v>
       </c>
@@ -37544,8 +37925,11 @@
       <c r="G486" s="1">
         <v>20</v>
       </c>
-    </row>
-    <row r="487" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H486" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="487" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A487" s="1">
         <v>271</v>
       </c>
@@ -37564,8 +37948,11 @@
       <c r="G487" s="1">
         <v>20</v>
       </c>
-    </row>
-    <row r="488" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H487" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="488" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A488" s="1">
         <v>272</v>
       </c>
@@ -37584,8 +37971,11 @@
       <c r="G488" s="1">
         <v>20</v>
       </c>
-    </row>
-    <row r="489" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H488" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="489" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A489" s="1">
         <v>273</v>
       </c>
@@ -37604,8 +37994,11 @@
       <c r="G489" s="1">
         <v>20.5</v>
       </c>
-    </row>
-    <row r="490" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H489" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="490" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A490" s="1">
         <v>274</v>
       </c>
@@ -37624,8 +38017,11 @@
       <c r="G490" s="1">
         <v>20.5</v>
       </c>
-    </row>
-    <row r="491" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H490" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="491" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A491" s="1">
         <v>275</v>
       </c>
@@ -37644,8 +38040,11 @@
       <c r="G491" s="1">
         <v>21</v>
       </c>
-    </row>
-    <row r="492" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H491" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="492" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A492" s="1">
         <v>276</v>
       </c>
@@ -37664,8 +38063,11 @@
       <c r="G492" s="1">
         <v>21.5</v>
       </c>
-    </row>
-    <row r="493" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H492" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="493" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A493" s="1">
         <v>277</v>
       </c>
@@ -37684,8 +38086,11 @@
       <c r="G493" s="1">
         <v>22</v>
       </c>
-    </row>
-    <row r="494" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H493" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="494" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A494" s="1">
         <v>278</v>
       </c>
@@ -37704,8 +38109,11 @@
       <c r="G494" s="1">
         <v>23</v>
       </c>
-    </row>
-    <row r="495" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H494" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="495" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A495" s="1">
         <v>279</v>
       </c>
@@ -37724,8 +38132,11 @@
       <c r="G495" s="1">
         <v>24</v>
       </c>
-    </row>
-    <row r="496" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H495" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="496" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A496" s="1">
         <v>280</v>
       </c>
@@ -37744,8 +38155,11 @@
       <c r="G496" s="1">
         <v>24.5</v>
       </c>
-    </row>
-    <row r="497" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H496" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="497" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A497" s="1">
         <v>281</v>
       </c>
@@ -37764,8 +38178,11 @@
       <c r="G497" s="1">
         <v>27</v>
       </c>
-    </row>
-    <row r="498" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H497" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="498" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A498" s="1">
         <v>216</v>
       </c>
@@ -37784,8 +38201,11 @@
       <c r="G498" s="1">
         <v>23</v>
       </c>
-    </row>
-    <row r="499" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H498" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="499" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A499" s="1">
         <v>217</v>
       </c>
@@ -37804,8 +38224,11 @@
       <c r="G499" s="1">
         <v>20</v>
       </c>
-    </row>
-    <row r="500" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H499" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="500" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A500" s="1">
         <v>218</v>
       </c>
@@ -37824,8 +38247,11 @@
       <c r="G500" s="1">
         <v>17</v>
       </c>
-    </row>
-    <row r="501" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H500" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="501" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A501" s="1">
         <v>219</v>
       </c>
@@ -37844,8 +38270,11 @@
       <c r="G501" s="1">
         <v>18</v>
       </c>
-    </row>
-    <row r="502" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H501" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="502" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A502" s="1">
         <v>220</v>
       </c>
@@ -37864,8 +38293,11 @@
       <c r="G502" s="1">
         <v>15</v>
       </c>
-    </row>
-    <row r="503" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H502" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="503" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A503" s="1">
         <v>221</v>
       </c>
@@ -37884,8 +38316,11 @@
       <c r="G503" s="1">
         <v>16</v>
       </c>
-    </row>
-    <row r="504" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H503" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="504" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A504" s="1">
         <v>222</v>
       </c>
@@ -37904,8 +38339,11 @@
       <c r="G504" s="1">
         <v>14</v>
       </c>
-    </row>
-    <row r="505" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H504" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="505" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A505" s="1">
         <v>223</v>
       </c>
@@ -37924,8 +38362,11 @@
       <c r="G505" s="1">
         <v>14</v>
       </c>
-    </row>
-    <row r="506" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H505" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="506" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A506" s="1">
         <v>224</v>
       </c>
@@ -37944,8 +38385,11 @@
       <c r="G506" s="1">
         <v>14</v>
       </c>
-    </row>
-    <row r="507" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H506" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="507" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A507" s="1">
         <v>225</v>
       </c>
@@ -37964,8 +38408,11 @@
       <c r="G507" s="1">
         <v>16.5</v>
       </c>
-    </row>
-    <row r="508" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H507" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="508" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A508" s="1">
         <v>226</v>
       </c>
@@ -37984,8 +38431,11 @@
       <c r="G508" s="1">
         <v>15.5</v>
       </c>
-    </row>
-    <row r="509" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H508" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="509" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A509" s="1">
         <v>227</v>
       </c>
@@ -38004,8 +38454,11 @@
       <c r="G509" s="1">
         <v>11.5</v>
       </c>
-    </row>
-    <row r="510" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H509" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="510" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A510" s="1">
         <v>228</v>
       </c>
@@ -38024,8 +38477,11 @@
       <c r="G510" s="1">
         <v>9.5</v>
       </c>
-    </row>
-    <row r="511" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H510" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="511" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A511" s="1">
         <v>229</v>
       </c>
@@ -38044,8 +38500,11 @@
       <c r="G511" s="1">
         <v>9</v>
       </c>
-    </row>
-    <row r="512" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H511" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="512" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A512" s="1">
         <v>230</v>
       </c>
@@ -38064,8 +38523,11 @@
       <c r="G512" s="1">
         <v>13</v>
       </c>
-    </row>
-    <row r="513" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H512" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="513" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A513" s="1">
         <v>231</v>
       </c>
@@ -38084,8 +38546,11 @@
       <c r="G513" s="1">
         <v>12.5</v>
       </c>
-    </row>
-    <row r="514" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H513" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="514" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A514" s="1">
         <v>232</v>
       </c>
@@ -38104,8 +38569,11 @@
       <c r="G514" s="1">
         <v>10.5</v>
       </c>
-    </row>
-    <row r="515" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H514" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="515" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A515" s="1">
         <v>233</v>
       </c>
@@ -38124,8 +38592,11 @@
       <c r="G515" s="1">
         <v>8.5</v>
       </c>
-    </row>
-    <row r="516" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H515" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="516" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A516" s="1">
         <v>234</v>
       </c>
@@ -38144,8 +38615,11 @@
       <c r="G516" s="1">
         <v>14</v>
       </c>
-    </row>
-    <row r="517" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H516" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="517" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A517" s="1">
         <v>235</v>
       </c>
@@ -38164,8 +38638,11 @@
       <c r="G517" s="1">
         <v>12.5</v>
       </c>
-    </row>
-    <row r="518" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H517" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="518" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A518" s="1">
         <v>236</v>
       </c>
@@ -38184,8 +38661,11 @@
       <c r="G518" s="1">
         <v>12</v>
       </c>
-    </row>
-    <row r="519" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H518" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="519" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A519" s="1">
         <v>237</v>
       </c>
@@ -38204,8 +38684,11 @@
       <c r="G519" s="1">
         <v>8.5</v>
       </c>
-    </row>
-    <row r="520" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H519" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="520" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A520" s="1">
         <v>238</v>
       </c>
@@ -38224,8 +38707,11 @@
       <c r="G520" s="1">
         <v>18.5</v>
       </c>
-    </row>
-    <row r="521" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H520" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="521" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A521" s="1">
         <v>239</v>
       </c>
@@ -38244,8 +38730,11 @@
       <c r="G521" s="1">
         <v>8</v>
       </c>
-    </row>
-    <row r="522" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H521" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="522" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A522" s="1">
         <v>240</v>
       </c>
@@ -38264,8 +38753,11 @@
       <c r="G522" s="1">
         <v>17.5</v>
       </c>
-    </row>
-    <row r="523" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H522" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="523" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A523" s="1">
         <v>241</v>
       </c>
@@ -38284,8 +38776,11 @@
       <c r="G523" s="1">
         <v>17</v>
       </c>
-    </row>
-    <row r="524" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H523" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="524" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A524" s="1">
         <v>242</v>
       </c>
@@ -38304,8 +38799,11 @@
       <c r="G524" s="1">
         <v>16</v>
       </c>
-    </row>
-    <row r="525" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H524" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="525" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A525" s="1">
         <v>243</v>
       </c>
@@ -38324,8 +38822,11 @@
       <c r="G525" s="1">
         <v>15.5</v>
       </c>
-    </row>
-    <row r="526" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H525" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="526" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A526" s="1">
         <v>244</v>
       </c>
@@ -38344,8 +38845,11 @@
       <c r="G526" s="1">
         <v>17</v>
       </c>
-    </row>
-    <row r="527" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H526" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="527" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A527" s="1">
         <v>245</v>
       </c>
@@ -38364,8 +38868,11 @@
       <c r="G527" s="1">
         <v>16.5</v>
       </c>
-    </row>
-    <row r="528" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H527" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="528" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A528" s="1">
         <v>246</v>
       </c>
@@ -38384,8 +38891,11 @@
       <c r="G528" s="1">
         <v>14.5</v>
       </c>
-    </row>
-    <row r="529" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H528" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="529" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A529" s="1">
         <v>247</v>
       </c>
@@ -38404,8 +38914,11 @@
       <c r="G529" s="1">
         <v>12.5</v>
       </c>
-    </row>
-    <row r="530" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H529" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="530" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A530" s="1">
         <v>248</v>
       </c>
@@ -38424,8 +38937,11 @@
       <c r="G530" s="1">
         <v>11</v>
       </c>
-    </row>
-    <row r="531" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H530" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="531" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A531" s="1">
         <v>249</v>
       </c>
@@ -38444,8 +38960,11 @@
       <c r="G531" s="1">
         <v>17</v>
       </c>
-    </row>
-    <row r="532" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H531" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="532" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A532" s="1">
         <v>250</v>
       </c>
@@ -38464,8 +38983,11 @@
       <c r="G532" s="1">
         <v>15</v>
       </c>
-    </row>
-    <row r="533" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H532" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="533" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A533" s="1">
         <v>251</v>
       </c>
@@ -38484,8 +39006,11 @@
       <c r="G533" s="1">
         <v>18</v>
       </c>
-    </row>
-    <row r="534" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H533" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="534" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A534" s="1">
         <v>252</v>
       </c>
@@ -38504,8 +39029,11 @@
       <c r="G534" s="1">
         <v>17.5</v>
       </c>
-    </row>
-    <row r="535" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H534" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="535" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A535" s="1">
         <v>253</v>
       </c>
@@ -38524,8 +39052,11 @@
       <c r="G535" s="1">
         <v>16.5</v>
       </c>
-    </row>
-    <row r="536" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H535" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="536" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A536" s="1">
         <v>254</v>
       </c>
@@ -38544,8 +39075,11 @@
       <c r="G536" s="1">
         <v>15</v>
       </c>
-    </row>
-    <row r="537" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H536" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="537" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A537" s="1">
         <v>255</v>
       </c>
@@ -38564,8 +39098,11 @@
       <c r="G537" s="1">
         <v>16.5</v>
       </c>
-    </row>
-    <row r="538" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H537" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="538" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A538" s="1">
         <v>256</v>
       </c>
@@ -38584,8 +39121,11 @@
       <c r="G538" s="1">
         <v>14.5</v>
       </c>
-    </row>
-    <row r="539" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H538" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="539" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A539" s="1">
         <v>257</v>
       </c>
@@ -38604,8 +39144,11 @@
       <c r="G539" s="1">
         <v>23</v>
       </c>
-    </row>
-    <row r="540" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H539" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="540" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A540" s="1">
         <v>258</v>
       </c>
@@ -38624,8 +39167,11 @@
       <c r="G540" s="1">
         <v>20</v>
       </c>
-    </row>
-    <row r="541" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H540" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="541" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A541" s="1">
         <v>259</v>
       </c>
@@ -38644,8 +39190,11 @@
       <c r="G541" s="1">
         <v>19</v>
       </c>
-    </row>
-    <row r="542" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H541" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="542" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A542" s="1">
         <v>260</v>
       </c>
@@ -38664,8 +39213,11 @@
       <c r="G542" s="1">
         <v>14</v>
       </c>
-    </row>
-    <row r="543" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H542" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="543" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A543" s="1">
         <v>261</v>
       </c>
@@ -38684,8 +39236,11 @@
       <c r="G543" s="1">
         <v>21</v>
       </c>
-    </row>
-    <row r="544" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H543" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="544" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A544" s="1">
         <v>262</v>
       </c>
@@ -38704,8 +39259,11 @@
       <c r="G544" s="1">
         <v>18</v>
       </c>
-    </row>
-    <row r="545" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H544" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="545" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A545" s="1">
         <v>263</v>
       </c>
@@ -38724,8 +39282,11 @@
       <c r="G545" s="1">
         <v>22.5</v>
       </c>
-    </row>
-    <row r="546" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H545" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="546" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A546" s="1">
         <v>264</v>
       </c>
@@ -38744,8 +39305,11 @@
       <c r="G546" s="1">
         <v>15.5</v>
       </c>
-    </row>
-    <row r="547" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H546" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="547" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A547" s="1">
         <v>265</v>
       </c>
@@ -38764,8 +39328,11 @@
       <c r="G547" s="1">
         <v>14.5</v>
       </c>
-    </row>
-    <row r="548" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H547" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="548" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A548" s="1">
         <v>266</v>
       </c>
@@ -38784,8 +39351,11 @@
       <c r="G548" s="1">
         <v>21.5</v>
       </c>
-    </row>
-    <row r="549" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H548" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="549" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A549" s="1">
         <v>267</v>
       </c>
@@ -38804,8 +39374,11 @@
       <c r="G549" s="1">
         <v>20</v>
       </c>
-    </row>
-    <row r="550" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H549" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="550" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A550" s="1">
         <v>268</v>
       </c>
@@ -38824,8 +39397,11 @@
       <c r="G550" s="1">
         <v>17.5</v>
       </c>
-    </row>
-    <row r="551" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H550" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="551" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A551" s="1">
         <v>269</v>
       </c>
@@ -38844,8 +39420,11 @@
       <c r="G551" s="1">
         <v>6</v>
       </c>
-    </row>
-    <row r="552" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H551" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="552" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A552" s="1">
         <v>270</v>
       </c>
@@ -38864,8 +39443,11 @@
       <c r="G552" s="1">
         <v>23</v>
       </c>
-    </row>
-    <row r="553" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H552" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="553" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A553" s="1">
         <v>271</v>
       </c>
@@ -38884,8 +39466,11 @@
       <c r="G553" s="1">
         <v>20.5</v>
       </c>
-    </row>
-    <row r="554" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H553" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="554" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A554" s="1">
         <v>272</v>
       </c>
@@ -38904,8 +39489,11 @@
       <c r="G554" s="1">
         <v>19.5</v>
       </c>
-    </row>
-    <row r="555" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H554" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="555" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A555" s="1">
         <v>273</v>
       </c>
@@ -38924,8 +39512,11 @@
       <c r="G555" s="1">
         <v>21</v>
       </c>
-    </row>
-    <row r="556" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H555" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="556" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A556" s="1">
         <v>274</v>
       </c>
@@ -38944,8 +39535,11 @@
       <c r="G556" s="1">
         <v>19.5</v>
       </c>
-    </row>
-    <row r="557" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H556" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="557" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A557" s="1">
         <v>275</v>
       </c>
@@ -38964,8 +39558,11 @@
       <c r="G557" s="1">
         <v>21.5</v>
       </c>
-    </row>
-    <row r="558" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H557" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="558" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A558" s="1">
         <v>276</v>
       </c>
@@ -38984,8 +39581,11 @@
       <c r="G558" s="1">
         <v>21.5</v>
       </c>
-    </row>
-    <row r="559" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H558" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="559" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A559" s="1">
         <v>277</v>
       </c>
@@ -39004,8 +39604,11 @@
       <c r="G559" s="1">
         <v>19.5</v>
       </c>
-    </row>
-    <row r="560" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H559" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="560" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A560" s="1">
         <v>278</v>
       </c>
@@ -39024,8 +39627,11 @@
       <c r="G560" s="1">
         <v>20.5</v>
       </c>
-    </row>
-    <row r="561" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H560" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="561" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A561" s="1">
         <v>279</v>
       </c>
@@ -39044,8 +39650,11 @@
       <c r="G561" s="1">
         <v>19.5</v>
       </c>
-    </row>
-    <row r="562" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H561" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="562" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A562" s="1">
         <v>280</v>
       </c>
@@ -39064,8 +39673,11 @@
       <c r="G562" s="1">
         <v>25</v>
       </c>
-    </row>
-    <row r="563" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H562" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="563" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A563" s="1">
         <v>281</v>
       </c>
@@ -39084,8 +39696,11 @@
       <c r="G563" s="1">
         <v>26</v>
       </c>
-    </row>
-    <row r="564" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H563" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="564" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A564" s="1">
         <v>282</v>
       </c>
@@ -39104,8 +39719,11 @@
       <c r="G564" s="1">
         <v>23</v>
       </c>
-    </row>
-    <row r="565" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H564" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="565" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A565" s="1">
         <v>283</v>
       </c>
@@ -39124,8 +39742,11 @@
       <c r="G565" s="1">
         <v>20</v>
       </c>
-    </row>
-    <row r="566" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H565" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="566" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A566" s="1">
         <v>284</v>
       </c>
@@ -39144,8 +39765,11 @@
       <c r="G566" s="1">
         <v>19</v>
       </c>
-    </row>
-    <row r="567" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H566" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="567" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A567" s="1">
         <v>285</v>
       </c>
@@ -39164,8 +39788,11 @@
       <c r="G567" s="1">
         <v>17.5</v>
       </c>
-    </row>
-    <row r="568" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H567" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="568" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A568" s="1">
         <v>286</v>
       </c>
@@ -39184,8 +39811,11 @@
       <c r="G568" s="1">
         <v>16</v>
       </c>
-    </row>
-    <row r="569" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H568" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="569" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A569" s="1">
         <v>287</v>
       </c>
@@ -39204,8 +39834,11 @@
       <c r="G569" s="1">
         <v>15</v>
       </c>
-    </row>
-    <row r="570" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H569" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="570" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A570" s="1">
         <v>288</v>
       </c>
@@ -39224,8 +39857,11 @@
       <c r="G570" s="1">
         <v>15</v>
       </c>
-    </row>
-    <row r="571" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H570" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="571" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A571" s="1">
         <v>289</v>
       </c>
@@ -39244,8 +39880,11 @@
       <c r="G571" s="1">
         <v>11.5</v>
       </c>
-    </row>
-    <row r="572" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H571" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="572" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A572" s="1">
         <v>282</v>
       </c>
@@ -39264,8 +39903,11 @@
       <c r="G572" s="1">
         <v>26</v>
       </c>
-    </row>
-    <row r="573" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H572" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="573" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A573" s="1">
         <v>283</v>
       </c>
@@ -39284,8 +39926,11 @@
       <c r="G573" s="1">
         <v>21</v>
       </c>
-    </row>
-    <row r="574" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H573" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="574" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A574" s="1">
         <v>284</v>
       </c>
@@ -39304,8 +39949,11 @@
       <c r="G574" s="1">
         <v>20</v>
       </c>
-    </row>
-    <row r="575" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H574" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="575" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A575" s="1">
         <v>285</v>
       </c>
@@ -39324,8 +39972,11 @@
       <c r="G575" s="1">
         <v>18.5</v>
       </c>
-    </row>
-    <row r="576" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H575" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="576" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A576" s="1">
         <v>286</v>
       </c>
@@ -39344,8 +39995,11 @@
       <c r="G576" s="1">
         <v>16</v>
       </c>
-    </row>
-    <row r="577" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H576" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="577" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A577" s="1">
         <v>287</v>
       </c>
@@ -39364,8 +40018,11 @@
       <c r="G577" s="1">
         <v>14.5</v>
       </c>
-    </row>
-    <row r="578" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H577" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="578" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A578" s="1">
         <v>288</v>
       </c>
@@ -39384,8 +40041,11 @@
       <c r="G578" s="1">
         <v>12</v>
       </c>
-    </row>
-    <row r="579" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H578" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="579" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A579" s="1">
         <v>289</v>
       </c>
@@ -39403,6 +40063,9 @@
       </c>
       <c r="G579" s="1">
         <v>11.5</v>
+      </c>
+      <c r="H579" s="1">
+        <v>2</v>
       </c>
     </row>
   </sheetData>
